--- a/nfl-player-rate-state-20160623/nfl-player-rate-state-20160623.xlsx
+++ b/nfl-player-rate-state-20160623/nfl-player-rate-state-20160623.xlsx
@@ -23,96 +23,99 @@
     <t>value</t>
   </si>
   <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>usps</t>
+  </si>
+  <si>
+    <t>ap</t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
     <t>headline</t>
   </si>
   <si>
+    <t>NFL Player Totals By State</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
     <t>NFL Player Rate By State</t>
   </si>
   <si>
+    <t>Ala.</t>
+  </si>
+  <si>
+    <t>Alaska</t>
+  </si>
+  <si>
+    <t>AK</t>
+  </si>
+  <si>
     <t>subhed</t>
   </si>
   <si>
+    <t xml:space="preserve">More than 20,000 men have played in the National Football League. The raw numbers of pro players born in each state roughly resembles a population map of the country. </t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>AZ</t>
+  </si>
+  <si>
+    <t>Ariz.</t>
+  </si>
+  <si>
+    <t>Arkansas</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>Ark.</t>
+  </si>
+  <si>
+    <t>keychatter</t>
+  </si>
+  <si>
     <t xml:space="preserve">More than 20,000 men have played in the National Football League. Those born in states in the Deep South and Rust Belt have overrepresented other parts of the country as a proportion of current state population. </t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>usps</t>
-  </si>
-  <si>
-    <t>ap</t>
-  </si>
-  <si>
-    <t>Alabama</t>
-  </si>
-  <si>
-    <t>AL</t>
-  </si>
-  <si>
-    <t>Ala.</t>
-  </si>
-  <si>
-    <t>Alaska</t>
-  </si>
-  <si>
-    <t>AK</t>
-  </si>
-  <si>
-    <t>NFL Player Totals By State</t>
-  </si>
-  <si>
-    <t xml:space="preserve">More than 20,000 men have played in the National Football League. The raw numbers of pro players born in each state roughly resembles a population map of the country. </t>
-  </si>
-  <si>
-    <t>keychatter</t>
+    <t>Total Players</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>Calif.</t>
   </si>
   <si>
     <t>Players per 100,000 Residents</t>
   </si>
   <si>
-    <t>Total Players</t>
-  </si>
-  <si>
-    <t>Arizona</t>
-  </si>
-  <si>
-    <t>AZ</t>
-  </si>
-  <si>
-    <t>Ariz.</t>
-  </si>
-  <si>
-    <t>Arkansas</t>
-  </si>
-  <si>
-    <t>AR</t>
-  </si>
-  <si>
-    <t>Ark.</t>
+    <t>Colorado</t>
   </si>
   <si>
     <t>footnote</t>
   </si>
   <si>
-    <t>California</t>
-  </si>
-  <si>
-    <t>CA</t>
-  </si>
-  <si>
-    <t>Calif.</t>
-  </si>
-  <si>
-    <t>Colorado</t>
-  </si>
-  <si>
     <t>CO</t>
   </si>
   <si>
     <t>Colo.</t>
   </si>
   <si>
+    <t>State population totals represent 2014 estimates of adult males; More than 500 players born overseas.</t>
+  </si>
+  <si>
     <t>Connecticut</t>
   </si>
   <si>
@@ -122,39 +125,42 @@
     <t>Conn.</t>
   </si>
   <si>
-    <t>State population totals represent 2014 estimates of adult males; More than 500 players born overseas.</t>
-  </si>
-  <si>
     <t>Delaware</t>
   </si>
   <si>
+    <t>source</t>
+  </si>
+  <si>
     <t>DE</t>
   </si>
   <si>
     <t>Del.</t>
   </si>
   <si>
-    <t>source</t>
+    <t>Pro Football Reference (&lt;a href="http://www.pro-football-reference.com/friv/birthplaces.htm#undefined::none"&gt;NFL players&lt;/a&gt;); U.S. Census Bureau (&lt;a href="http://factfinder.census.gov/bkmk/table/1.0/en/ACS/14_1YR/S0101/0100000US.04000"&gt;population&lt;/a&gt;)</t>
+  </si>
+  <si>
+    <t>Pro Football Reference (&lt;a href="http://www.pro-football-reference.com/friv/birthplaces.htm#undefined::none"&gt;NFL players&lt;/a&gt;)</t>
   </si>
   <si>
     <t>District of Columbia</t>
   </si>
   <si>
-    <t>Pro Football Reference (&lt;a href="http://www.pro-football-reference.com/friv/birthplaces.htm#undefined::none"&gt;NFL players&lt;/a&gt;)</t>
-  </si>
-  <si>
     <t>DC</t>
   </si>
   <si>
     <t>D.C.</t>
   </si>
   <si>
-    <t>Pro Football Reference (&lt;a href="http://www.pro-football-reference.com/friv/birthplaces.htm#undefined::none"&gt;NFL players&lt;/a&gt;); U.S. Census Bureau (&lt;a href="http://factfinder.census.gov/bkmk/table/1.0/en/ACS/14_1YR/S0101/0100000US.04000"&gt;population&lt;/a&gt;)</t>
+    <t>credit</t>
   </si>
   <si>
     <t>Florida</t>
   </si>
   <si>
+    <t>Matt Stiles/&lt;a href="http://www.thedailyviz.com"&gt;The Daily Viz&lt;/a&gt;</t>
+  </si>
+  <si>
     <t>FL</t>
   </si>
   <si>
@@ -164,15 +170,9 @@
     <t>Georgia</t>
   </si>
   <si>
-    <t>credit</t>
-  </si>
-  <si>
     <t>GA</t>
   </si>
   <si>
-    <t>Matt Stiles/&lt;a href="http://www.thedailyviz.com"&gt;The Daily Viz&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>Ga.</t>
   </si>
   <si>
@@ -557,85 +557,85 @@
     <t>TDRate100Games</t>
   </si>
   <si>
+    <t>ProRateGroup</t>
+  </si>
+  <si>
+    <t>TDGroup</t>
+  </si>
+  <si>
     <t>category</t>
   </si>
   <si>
-    <t>TDGroup</t>
-  </si>
-  <si>
-    <t>ProRateGroup</t>
-  </si>
-  <si>
     <t>New England</t>
   </si>
   <si>
     <t>South Atlantic</t>
   </si>
   <si>
+    <t>&gt; 30</t>
+  </si>
+  <si>
+    <t>5-6</t>
+  </si>
+  <si>
+    <t>101-300</t>
+  </si>
+  <si>
     <t>0-10</t>
   </si>
   <si>
-    <t>&gt; 30</t>
-  </si>
-  <si>
     <t>3-5</t>
   </si>
   <si>
-    <t>5-6</t>
-  </si>
-  <si>
-    <t>101-300</t>
+    <t>East South Central</t>
   </si>
   <si>
     <t>Mountain</t>
   </si>
   <si>
-    <t>East South Central</t>
-  </si>
-  <si>
     <t>6-8</t>
   </si>
   <si>
     <t>301-700</t>
   </si>
   <si>
+    <t>West South Central</t>
+  </si>
+  <si>
+    <t>&gt; 8</t>
+  </si>
+  <si>
+    <t>701-1,200</t>
+  </si>
+  <si>
+    <t>West North Central</t>
+  </si>
+  <si>
     <t>&lt; 3</t>
   </si>
   <si>
+    <t>East North Central</t>
+  </si>
+  <si>
+    <t>&gt; 1,200</t>
+  </si>
+  <si>
     <t>Pacific</t>
   </si>
   <si>
-    <t>West South Central</t>
-  </si>
-  <si>
-    <t>&gt; 8</t>
-  </si>
-  <si>
-    <t>701-1,200</t>
-  </si>
-  <si>
-    <t>West North Central</t>
-  </si>
-  <si>
-    <t>East North Central</t>
-  </si>
-  <si>
-    <t>&gt; 1,200</t>
-  </si>
-  <si>
     <t>20-30</t>
   </si>
   <si>
     <t>Middle Atlantic</t>
   </si>
   <si>
+    <t>15-20</t>
+  </si>
+  <si>
+    <t>0-100</t>
+  </si>
+  <si>
     <t>10-15</t>
-  </si>
-  <si>
-    <t>15-20</t>
-  </si>
-  <si>
-    <t>0-100</t>
   </si>
 </sst>
 </file>
@@ -680,55 +680,50 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -738,27 +733,30 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -802,10 +800,10 @@
     </row>
     <row r="2" ht="33.0" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -834,10 +832,10 @@
     </row>
     <row r="3" ht="33.0" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -866,10 +864,10 @@
     </row>
     <row r="4" ht="33.0" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -898,10 +896,10 @@
     </row>
     <row r="5" ht="33.0" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -930,10 +928,10 @@
     </row>
     <row r="6" ht="33.0" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -962,10 +960,10 @@
     </row>
     <row r="7" ht="33.0" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -1391,6 +1389,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1434,10 +1435,10 @@
     </row>
     <row r="2" ht="33.0" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -1466,10 +1467,10 @@
     </row>
     <row r="3" ht="33.0" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -1498,10 +1499,10 @@
     </row>
     <row r="4" ht="33.0" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -1530,7 +1531,7 @@
     </row>
     <row r="5" ht="33.0" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
@@ -1560,7 +1561,7 @@
     </row>
     <row r="6" ht="33.0" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>41</v>
@@ -1592,10 +1593,10 @@
     </row>
     <row r="7" ht="33.0" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -2021,6 +2022,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2033,78 +2037,78 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="D2" s="3"/>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>13</v>
-      </c>
       <c r="C3" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="5"/>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D4" s="3"/>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D5" s="3"/>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="D6" s="3"/>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>30</v>
@@ -2116,13 +2120,13 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D8" s="3"/>
     </row>
@@ -2131,43 +2135,43 @@
         <v>36</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D9" s="3"/>
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D10" s="3"/>
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D11" s="3"/>
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>52</v>
@@ -2679,6 +2683,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2732,20 +2739,20 @@
         <v>179</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P1" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
     </row>
     <row r="2">
       <c r="A2" s="6" t="s">
@@ -2791,10 +2798,10 @@
         <v>4.26</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3">
@@ -2808,7 +2815,7 @@
         <v>32.0</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E3" s="10">
         <v>45.0</v>
@@ -2841,10 +2848,10 @@
         <v>5.68</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4">
@@ -2891,24 +2898,24 @@
         <v>2.68</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>13</v>
       </c>
       <c r="C5" s="6">
         <v>2.0</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="E5" s="10">
         <v>13.0</v>
@@ -2941,10 +2948,10 @@
         <v>1.88</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6">
@@ -2991,10 +2998,10 @@
         <v>1.51</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7">
@@ -3008,7 +3015,7 @@
         <v>35.0</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E7" s="10">
         <v>38.0</v>
@@ -3041,7 +3048,7 @@
         <v>6.02</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>192</v>
@@ -3049,16 +3056,16 @@
     </row>
     <row r="8">
       <c r="A8" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C8" s="6">
         <v>4.0</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E8" s="10">
         <v>157.0</v>
@@ -3091,15 +3098,15 @@
         <v>4.64</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>30</v>
@@ -3108,7 +3115,7 @@
         <v>8.0</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E9" s="10">
         <v>153.0</v>
@@ -3141,10 +3148,10 @@
         <v>4.19</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10">
@@ -3152,7 +3159,7 @@
         <v>36</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C10" s="6">
         <v>10.0</v>
@@ -3191,10 +3198,10 @@
         <v>3.25</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11">
@@ -3241,7 +3248,7 @@
         <v>6.99</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>192</v>
@@ -3291,10 +3298,10 @@
         <v>5.4</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13">
@@ -3308,7 +3315,7 @@
         <v>53.0</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="E13" s="10">
         <v>266.0</v>
@@ -3341,10 +3348,10 @@
         <v>5.5</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14">
@@ -3358,7 +3365,7 @@
         <v>16.0</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E14" s="10">
         <v>59.0</v>
@@ -3391,10 +3398,10 @@
         <v>4.98</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15">
@@ -3408,7 +3415,7 @@
         <v>41.0</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="E15" s="10">
         <v>154.0</v>
@@ -3441,10 +3448,10 @@
         <v>4.65</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16">
@@ -3491,10 +3498,10 @@
         <v>4.41</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17">
@@ -3508,7 +3515,7 @@
         <v>49.0</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E17" s="10">
         <v>107.0</v>
@@ -3541,10 +3548,10 @@
         <v>4.94</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18">
@@ -3558,7 +3565,7 @@
         <v>21.0</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E18" s="10">
         <v>208.0</v>
@@ -3591,10 +3598,10 @@
         <v>5.83</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19">
@@ -3641,7 +3648,7 @@
         <v>7.36</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>192</v>
@@ -3649,10 +3656,10 @@
     </row>
     <row r="20">
       <c r="A20" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C20" s="6">
         <v>9.0</v>
@@ -3691,10 +3698,10 @@
         <v>5.6</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21">
@@ -3708,7 +3715,7 @@
         <v>56.0</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E21" s="10">
         <v>30.0</v>
@@ -3741,10 +3748,10 @@
         <v>10.24</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="22">
@@ -3791,7 +3798,7 @@
         <v>6.04</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>192</v>
@@ -3799,16 +3806,16 @@
     </row>
     <row r="23">
       <c r="A23" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C23" s="6">
         <v>6.0</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="E23" s="11">
         <v>2040.0</v>
@@ -3841,18 +3848,18 @@
         <v>5.97</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C24" s="6">
         <v>12.0</v>
@@ -3891,7 +3898,7 @@
         <v>7.12</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>192</v>
@@ -3908,7 +3915,7 @@
         <v>29.0</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E25" s="10">
         <v>343.0</v>
@@ -3941,7 +3948,7 @@
         <v>6.0</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>192</v>
@@ -3991,10 +3998,10 @@
         <v>4.92</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27">
@@ -4008,7 +4015,7 @@
         <v>47.0</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E27" s="10">
         <v>374.0</v>
@@ -4041,10 +4048,10 @@
         <v>3.46</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="28">
@@ -4058,7 +4065,7 @@
         <v>30.0</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E28" s="10">
         <v>62.0</v>
@@ -4091,10 +4098,10 @@
         <v>1.36</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="29">
@@ -4108,7 +4115,7 @@
         <v>18.0</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E29" s="10">
         <v>381.0</v>
@@ -4141,10 +4148,10 @@
         <v>5.69</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="30">
@@ -4158,7 +4165,7 @@
         <v>15.0</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="E30" s="10">
         <v>91.0</v>
@@ -4191,10 +4198,10 @@
         <v>1.58</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="31">
@@ -4241,7 +4248,7 @@
         <v>6.12</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>192</v>
@@ -4258,7 +4265,7 @@
         <v>46.0</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E32" s="10">
         <v>53.0</v>
@@ -4291,10 +4298,10 @@
         <v>5.32</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="33">
@@ -4308,7 +4315,7 @@
         <v>38.0</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E33" s="10">
         <v>49.0</v>
@@ -4341,10 +4348,10 @@
         <v>4.45</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="34">
@@ -4358,7 +4365,7 @@
         <v>26.0</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E34" s="10">
         <v>642.0</v>
@@ -4391,10 +4398,10 @@
         <v>5.95</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="35">
@@ -4408,7 +4415,7 @@
         <v>55.0</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E35" s="10">
         <v>393.0</v>
@@ -4441,10 +4448,10 @@
         <v>5.84</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="36">
@@ -4458,7 +4465,7 @@
         <v>27.0</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E36" s="10">
         <v>375.0</v>
@@ -4491,18 +4498,18 @@
         <v>5.0</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C37" s="6">
         <v>13.0</v>
@@ -4541,7 +4548,7 @@
         <v>6.68</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>192</v>
@@ -4558,7 +4565,7 @@
         <v>20.0</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E38" s="10">
         <v>211.0</v>
@@ -4591,7 +4598,7 @@
         <v>6.45</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P38" s="7" t="s">
         <v>192</v>
@@ -4641,10 +4648,10 @@
         <v>5.94</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="40">
@@ -4658,7 +4665,7 @@
         <v>17.0</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E40" s="10">
         <v>977.0</v>
@@ -4694,7 +4701,7 @@
         <v>202</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="41">
@@ -4708,7 +4715,7 @@
         <v>48.0</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E41" s="11">
         <v>2120.0</v>
@@ -4794,7 +4801,7 @@
         <v>202</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="43">
@@ -4808,7 +4815,7 @@
         <v>19.0</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E43" s="10">
         <v>288.0</v>
@@ -4844,21 +4851,21 @@
         <v>202</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C44" s="6">
         <v>5.0</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E44" s="10">
         <v>282.0</v>
@@ -4894,7 +4901,7 @@
         <v>202</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="45">
@@ -4958,7 +4965,7 @@
         <v>40.0</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E46" s="10">
         <v>428.0</v>
@@ -5008,7 +5015,7 @@
         <v>39.0</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E47" s="11">
         <v>1298.0</v>
@@ -5041,10 +5048,10 @@
         <v>5.44</v>
       </c>
       <c r="O47" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P47" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="P47" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="48">
@@ -5058,7 +5065,7 @@
         <v>31.0</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E48" s="10">
         <v>221.0</v>
@@ -5091,24 +5098,24 @@
         <v>4.83</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C49" s="6">
         <v>1.0</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E49" s="10">
         <v>623.0</v>
@@ -5141,10 +5148,10 @@
         <v>5.46</v>
       </c>
       <c r="O49" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P49" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="P49" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="50">
@@ -5158,7 +5165,7 @@
         <v>22.0</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E50" s="10">
         <v>769.0</v>
@@ -5191,10 +5198,10 @@
         <v>8.21</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="51">
@@ -5208,7 +5215,7 @@
         <v>28.0</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E51" s="10">
         <v>573.0</v>
@@ -5241,7 +5248,7 @@
         <v>7.2</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P51" s="7" t="s">
         <v>192</v>
@@ -5249,10 +5256,10 @@
     </row>
     <row r="52">
       <c r="A52" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C52" s="6">
         <v>11.0</v>
@@ -5291,10 +5298,10 @@
         <v>5.61</v>
       </c>
       <c r="O52" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P52" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="P52" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="53">
@@ -10044,6 +10051,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10110,29 +10120,29 @@
         <v>179</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P1" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="Q1" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
+      <c r="Q1" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
     </row>
     <row r="2">
       <c r="A2" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C2" s="6">
         <v>11.0</v>
@@ -10171,13 +10181,13 @@
         <v>5.61</v>
       </c>
       <c r="O2" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P2" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="P2" s="7" t="s">
-        <v>188</v>
-      </c>
       <c r="Q2" s="12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3">
@@ -10191,7 +10201,7 @@
         <v>28.0</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E3" s="10">
         <v>573.0</v>
@@ -10224,7 +10234,7 @@
         <v>7.2</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P3" s="7" t="s">
         <v>192</v>
@@ -10244,7 +10254,7 @@
         <v>22.0</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E4" s="10">
         <v>769.0</v>
@@ -10277,27 +10287,27 @@
         <v>8.21</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="Q4" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5" s="6">
         <v>1.0</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E5" s="10">
         <v>623.0</v>
@@ -10330,10 +10340,10 @@
         <v>5.46</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="Q5" s="12" t="s">
         <v>193</v>
@@ -10350,7 +10360,7 @@
         <v>31.0</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E6" s="10">
         <v>221.0</v>
@@ -10383,13 +10393,13 @@
         <v>4.83</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P6" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q6" s="12" t="s">
         <v>187</v>
-      </c>
-      <c r="Q6" s="12" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="7">
@@ -10403,7 +10413,7 @@
         <v>39.0</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E7" s="11">
         <v>1298.0</v>
@@ -10436,13 +10446,13 @@
         <v>5.44</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="P7" s="7" t="s">
-        <v>188</v>
-      </c>
       <c r="Q7" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8">
@@ -10456,7 +10466,7 @@
         <v>40.0</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E8" s="10">
         <v>428.0</v>
@@ -10548,21 +10558,21 @@
         <v>192</v>
       </c>
       <c r="Q9" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C10" s="6">
         <v>5.0</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E10" s="10">
         <v>282.0</v>
@@ -10598,10 +10608,10 @@
         <v>202</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="Q10" s="12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11">
@@ -10615,7 +10625,7 @@
         <v>19.0</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E11" s="10">
         <v>288.0</v>
@@ -10651,10 +10661,10 @@
         <v>202</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="Q11" s="12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12">
@@ -10704,10 +10714,10 @@
         <v>202</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="Q12" s="12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13">
@@ -10721,7 +10731,7 @@
         <v>48.0</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E13" s="11">
         <v>2120.0</v>
@@ -10760,7 +10770,7 @@
         <v>192</v>
       </c>
       <c r="Q13" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14">
@@ -10774,7 +10784,7 @@
         <v>17.0</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E14" s="10">
         <v>977.0</v>
@@ -10810,10 +10820,10 @@
         <v>202</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="Q14" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15">
@@ -10860,10 +10870,10 @@
         <v>5.94</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="Q15" s="12" t="s">
         <v>193</v>
@@ -10880,7 +10890,7 @@
         <v>20.0</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E16" s="10">
         <v>211.0</v>
@@ -10913,21 +10923,21 @@
         <v>6.45</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>192</v>
       </c>
       <c r="Q16" s="12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C17" s="6">
         <v>13.0</v>
@@ -10966,13 +10976,13 @@
         <v>6.68</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>192</v>
       </c>
       <c r="Q17" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18">
@@ -10986,7 +10996,7 @@
         <v>27.0</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E18" s="10">
         <v>375.0</v>
@@ -11019,10 +11029,10 @@
         <v>5.0</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="Q18" s="12" t="s">
         <v>193</v>
@@ -11039,7 +11049,7 @@
         <v>55.0</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E19" s="10">
         <v>393.0</v>
@@ -11072,10 +11082,10 @@
         <v>5.84</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="Q19" s="12" t="s">
         <v>193</v>
@@ -11092,7 +11102,7 @@
         <v>26.0</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E20" s="10">
         <v>642.0</v>
@@ -11125,10 +11135,10 @@
         <v>5.95</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="Q20" s="12" t="s">
         <v>193</v>
@@ -11145,7 +11155,7 @@
         <v>38.0</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E21" s="10">
         <v>49.0</v>
@@ -11178,13 +11188,13 @@
         <v>4.45</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q21" s="12" t="s">
         <v>205</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q21" s="12" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="22">
@@ -11198,7 +11208,7 @@
         <v>46.0</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E22" s="10">
         <v>53.0</v>
@@ -11231,13 +11241,13 @@
         <v>5.32</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q22" s="12" t="s">
         <v>205</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q22" s="12" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="23">
@@ -11284,7 +11294,7 @@
         <v>6.12</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>192</v>
@@ -11304,7 +11314,7 @@
         <v>15.0</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="E24" s="10">
         <v>91.0</v>
@@ -11337,13 +11347,13 @@
         <v>1.58</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q24" s="12" t="s">
         <v>205</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q24" s="12" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="25">
@@ -11357,7 +11367,7 @@
         <v>18.0</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E25" s="10">
         <v>381.0</v>
@@ -11390,10 +11400,10 @@
         <v>5.69</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="Q25" s="12" t="s">
         <v>193</v>
@@ -11410,7 +11420,7 @@
         <v>30.0</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E26" s="10">
         <v>62.0</v>
@@ -11443,13 +11453,13 @@
         <v>1.36</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q26" s="12" t="s">
         <v>205</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q26" s="12" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="27">
@@ -11463,7 +11473,7 @@
         <v>47.0</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E27" s="10">
         <v>374.0</v>
@@ -11496,10 +11506,10 @@
         <v>3.46</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q27" s="12" t="s">
         <v>193</v>
@@ -11549,10 +11559,10 @@
         <v>4.92</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q28" s="12" t="s">
         <v>193</v>
@@ -11569,7 +11579,7 @@
         <v>29.0</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E29" s="10">
         <v>343.0</v>
@@ -11602,7 +11612,7 @@
         <v>6.0</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>192</v>
@@ -11613,10 +11623,10 @@
     </row>
     <row r="30">
       <c r="A30" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C30" s="6">
         <v>12.0</v>
@@ -11655,27 +11665,27 @@
         <v>7.12</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>192</v>
       </c>
       <c r="Q30" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C31" s="6">
         <v>6.0</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="E31" s="11">
         <v>2040.0</v>
@@ -11708,13 +11718,13 @@
         <v>5.97</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="Q31" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="32">
@@ -11761,7 +11771,7 @@
         <v>6.04</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>192</v>
@@ -11781,7 +11791,7 @@
         <v>56.0</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E33" s="10">
         <v>30.0</v>
@@ -11814,21 +11824,21 @@
         <v>10.24</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="Q33" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C34" s="6">
         <v>9.0</v>
@@ -11867,13 +11877,13 @@
         <v>5.6</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="Q34" s="12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="35">
@@ -11920,7 +11930,7 @@
         <v>7.36</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="P35" s="7" t="s">
         <v>192</v>
@@ -11940,7 +11950,7 @@
         <v>21.0</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E36" s="10">
         <v>208.0</v>
@@ -11973,13 +11983,13 @@
         <v>5.83</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="Q36" s="12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="37">
@@ -11993,7 +12003,7 @@
         <v>49.0</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E37" s="10">
         <v>107.0</v>
@@ -12026,13 +12036,13 @@
         <v>4.94</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="P37" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q37" s="12" t="s">
         <v>187</v>
-      </c>
-      <c r="Q37" s="12" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="38">
@@ -12079,13 +12089,13 @@
         <v>4.41</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q38" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="39">
@@ -12099,7 +12109,7 @@
         <v>41.0</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="E39" s="10">
         <v>154.0</v>
@@ -12132,13 +12142,13 @@
         <v>4.65</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="P39" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q39" s="12" t="s">
         <v>187</v>
-      </c>
-      <c r="Q39" s="12" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="40">
@@ -12152,7 +12162,7 @@
         <v>16.0</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E40" s="10">
         <v>59.0</v>
@@ -12185,13 +12195,13 @@
         <v>4.98</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q40" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="41">
@@ -12205,7 +12215,7 @@
         <v>53.0</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="E41" s="10">
         <v>266.0</v>
@@ -12238,13 +12248,13 @@
         <v>5.5</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="Q41" s="12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="42">
@@ -12291,13 +12301,13 @@
         <v>5.4</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="Q42" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="43">
@@ -12344,13 +12354,13 @@
         <v>6.99</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="P43" s="7" t="s">
         <v>192</v>
       </c>
       <c r="Q43" s="12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="44">
@@ -12358,7 +12368,7 @@
         <v>36</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C44" s="6">
         <v>10.0</v>
@@ -12397,18 +12407,18 @@
         <v>3.25</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q44" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>30</v>
@@ -12417,7 +12427,7 @@
         <v>8.0</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E45" s="10">
         <v>153.0</v>
@@ -12450,27 +12460,27 @@
         <v>4.19</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="P45" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q45" s="12" t="s">
         <v>187</v>
-      </c>
-      <c r="Q45" s="12" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C46" s="6">
         <v>4.0</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E46" s="10">
         <v>157.0</v>
@@ -12503,13 +12513,13 @@
         <v>4.64</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="P46" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q46" s="12" t="s">
         <v>187</v>
-      </c>
-      <c r="Q46" s="12" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="47">
@@ -12523,7 +12533,7 @@
         <v>35.0</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E47" s="10">
         <v>38.0</v>
@@ -12556,13 +12566,13 @@
         <v>6.02</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="P47" s="7" t="s">
         <v>192</v>
       </c>
       <c r="Q47" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="48">
@@ -12609,27 +12619,27 @@
         <v>1.51</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q48" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>13</v>
       </c>
       <c r="C49" s="6">
         <v>2.0</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="E49" s="10">
         <v>13.0</v>
@@ -12662,13 +12672,13 @@
         <v>1.88</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q49" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="50">
@@ -12715,13 +12725,13 @@
         <v>2.68</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q50" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="51">
@@ -12735,7 +12745,7 @@
         <v>32.0</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E51" s="10">
         <v>45.0</v>
@@ -12768,13 +12778,13 @@
         <v>5.68</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="Q51" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="52">
@@ -12821,13 +12831,13 @@
         <v>4.26</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q52" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="53">
